--- a/Documents/Technical/DDAS_Upload.xlsx
+++ b/Documents/Technical/DDAS_Upload.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="17175" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Address</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>ML # 55598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD, PhD, FRCPC </t>
   </si>
   <si>
     <t>Jensen Yeung</t>
@@ -139,6 +136,18 @@
 Suwanee, GA
 30024, USA
 </t>
+  </si>
+  <si>
+    <t>University Hospitals Cleveland Medical Center</t>
+  </si>
+  <si>
+    <t>K. Papp Clinical Research</t>
+  </si>
+  <si>
+    <t>Istanbul Universitesi Cerrahpasa Tip Fakultesi</t>
+  </si>
+  <si>
+    <t>Atlanta Gastroenterology Consultants.net</t>
   </si>
 </sst>
 </file>
@@ -542,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +693,9 @@
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
@@ -715,7 +726,9 @@
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
@@ -725,37 +738,39 @@
       <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="4"/>
@@ -772,21 +787,23 @@
     </row>
     <row r="4" spans="1:29" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -813,7 +830,7 @@
     </row>
     <row r="5" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5">
         <v>29775</v>
@@ -822,14 +839,16 @@
         <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
